--- a/Descargas/R15_9º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
+++ b/Descargas/R15_9º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B49" s="65">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B54" s="65">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
